--- a/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Provincia-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>11601</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6089</v>
+        <v>6156</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21727</v>
+        <v>20970</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03650912605321666</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01916170022443644</v>
+        <v>0.01937212494176523</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06837548441048789</v>
+        <v>0.06599074519088179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -762,19 +762,19 @@
         <v>19895</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14583</v>
+        <v>14360</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26083</v>
+        <v>25994</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0629463782734558</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0461383743910368</v>
+        <v>0.04543350900878681</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08252582861675686</v>
+        <v>0.08224433216609082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -783,19 +783,19 @@
         <v>31496</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23624</v>
+        <v>23558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41183</v>
+        <v>41989</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04969216882939236</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03727156346554355</v>
+        <v>0.03716752532245467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06497551386104355</v>
+        <v>0.06624688149943669</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>306166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296040</v>
+        <v>296797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311678</v>
+        <v>311611</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9634908739467831</v>
+        <v>0.9634908739467832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9316245155895122</v>
+        <v>0.9340092548091183</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9808382997755634</v>
+        <v>0.9806278750582355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>498</v>
@@ -833,19 +833,19 @@
         <v>296166</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>289978</v>
+        <v>290067</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301478</v>
+        <v>301701</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9370536217265442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9174741713832432</v>
+        <v>0.9177556678339087</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9538616256089643</v>
+        <v>0.9545664909912128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>816</v>
@@ -854,19 +854,19 @@
         <v>602332</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>592645</v>
+        <v>591839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>610204</v>
+        <v>610270</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9503078311706078</v>
+        <v>0.9503078311706075</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9350244861389566</v>
+        <v>0.9337531185005632</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9627284365344566</v>
+        <v>0.9628324746775453</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>19309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11037</v>
+        <v>11180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31452</v>
+        <v>31675</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03692884184667675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02110743638523021</v>
+        <v>0.02138150091339693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06015107811161125</v>
+        <v>0.06057869900324547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -979,19 +979,19 @@
         <v>35250</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27253</v>
+        <v>27353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45833</v>
+        <v>45505</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06549846919298094</v>
+        <v>0.06549846919298095</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05063993754433799</v>
+        <v>0.05082492334928138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08516376541003798</v>
+        <v>0.08455408266325148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -1000,19 +1000,19 @@
         <v>54559</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41975</v>
+        <v>41042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69708</v>
+        <v>69164</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.05141960294654375</v>
+        <v>0.05141960294654376</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03955977792874182</v>
+        <v>0.03868035027989057</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06569653821436801</v>
+        <v>0.0651845385354384</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>503569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491426</v>
+        <v>491203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>511841</v>
+        <v>511698</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9630711581533232</v>
+        <v>0.9630711581533231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9398489218883886</v>
+        <v>0.9394213009967547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9788925636147698</v>
+        <v>0.9786184990866034</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>653</v>
@@ -1050,19 +1050,19 @@
         <v>502925</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>492342</v>
+        <v>492670</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>510922</v>
+        <v>510822</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9345015308070189</v>
+        <v>0.934501530807019</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9148362345899622</v>
+        <v>0.9154459173367483</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9493600624556621</v>
+        <v>0.9491750766507185</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1015</v>
@@ -1071,19 +1071,19 @@
         <v>1006494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>991345</v>
+        <v>991889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1019078</v>
+        <v>1020011</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9485803970534562</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9343034617856322</v>
+        <v>0.9348154614645617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9604402220712581</v>
+        <v>0.9613196497201093</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>34561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25972</v>
+        <v>25600</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46254</v>
+        <v>45776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1117193028740442</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0839536449670457</v>
+        <v>0.08275223431480733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1495150557610352</v>
+        <v>0.1479695598619627</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -1196,19 +1196,19 @@
         <v>53308</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>43273</v>
+        <v>43290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64396</v>
+        <v>63897</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1556315991098364</v>
+        <v>0.1556315991098365</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1263335456428659</v>
+        <v>0.1263839386143114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1880028321681101</v>
+        <v>0.1865459643137463</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>142</v>
@@ -1217,19 +1217,19 @@
         <v>87869</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>74224</v>
+        <v>73400</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102724</v>
+        <v>104646</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1347925793220866</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1138603843803511</v>
+        <v>0.1125967073468996</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1575805630177178</v>
+        <v>0.1605288128118379</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>274798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>263105</v>
+        <v>263583</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283387</v>
+        <v>283759</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.888280697125956</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8504849442389657</v>
+        <v>0.8520304401380377</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9160463550329543</v>
+        <v>0.9172477656851931</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>419</v>
@@ -1267,19 +1267,19 @@
         <v>289219</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>278131</v>
+        <v>278630</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>299254</v>
+        <v>299237</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8443684008901635</v>
+        <v>0.8443684008901633</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8119971678318899</v>
+        <v>0.8134540356862534</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8736664543571339</v>
+        <v>0.8736160613856886</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>725</v>
@@ -1288,19 +1288,19 @@
         <v>564016</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>549161</v>
+        <v>547239</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>577661</v>
+        <v>578485</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8652074206779133</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8424194369822823</v>
+        <v>0.8394711871881622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8861396156196485</v>
+        <v>0.8874032926531005</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>23447</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14278</v>
+        <v>14001</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37933</v>
+        <v>37291</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06743753062721476</v>
+        <v>0.06743753062721473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0410667780178162</v>
+        <v>0.04026873571844274</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1091012953822832</v>
+        <v>0.1072554349473355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -1413,19 +1413,19 @@
         <v>47838</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36331</v>
+        <v>37405</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62506</v>
+        <v>62863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1225207766639726</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09304977802768026</v>
+        <v>0.09580010740847987</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1600864281030425</v>
+        <v>0.1610000772508154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1434,19 +1434,19 @@
         <v>71286</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56189</v>
+        <v>57322</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89430</v>
+        <v>89262</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09657475864070132</v>
+        <v>0.09657475864070135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07612261253353113</v>
+        <v>0.07765782484724836</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1211554479314285</v>
+        <v>0.120928838989054</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>324241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>309755</v>
+        <v>310397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>333410</v>
+        <v>333687</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9325624693727853</v>
+        <v>0.9325624693727851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8908987046177169</v>
+        <v>0.8927445650526644</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9589332219821838</v>
+        <v>0.9597312642815573</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -1484,19 +1484,19 @@
         <v>342613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>327945</v>
+        <v>327588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354120</v>
+        <v>353046</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8774792233360277</v>
+        <v>0.8774792233360275</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8399135718969577</v>
+        <v>0.8389999227491846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9069502219723199</v>
+        <v>0.9041998925915202</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>717</v>
@@ -1505,19 +1505,19 @@
         <v>666853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>648709</v>
+        <v>648877</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>681950</v>
+        <v>680817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9034252413592987</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8788445520685714</v>
+        <v>0.8790711610109457</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9238773874664689</v>
+        <v>0.9223421751527516</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>48177</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38425</v>
+        <v>38560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58765</v>
+        <v>60087</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2362156759928732</v>
+        <v>0.2362156759928733</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1883999990791798</v>
+        <v>0.189066318210325</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2881296703130837</v>
+        <v>0.2946141549868563</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>169</v>
@@ -1630,19 +1630,19 @@
         <v>70688</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61815</v>
+        <v>60973</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81707</v>
+        <v>81023</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3133127682724195</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2739862544058783</v>
+        <v>0.2702533057864906</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3621545620904957</v>
+        <v>0.3591202844572826</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -1651,19 +1651,19 @@
         <v>118864</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106493</v>
+        <v>105880</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>133480</v>
+        <v>133265</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.27670811609285</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2479089552471515</v>
+        <v>0.2464805322571942</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3107321863686625</v>
+        <v>0.3102320387327793</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>155775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>145187</v>
+        <v>143865</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>165527</v>
+        <v>165392</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7637843240071266</v>
+        <v>0.7637843240071268</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7118703296869162</v>
+        <v>0.7053858450131435</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8116000009208202</v>
+        <v>0.810933681789675</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>319</v>
@@ -1701,19 +1701,19 @@
         <v>154926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>143907</v>
+        <v>144591</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163799</v>
+        <v>164641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6866872317275805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6378454379095042</v>
+        <v>0.6408797155427174</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7260137455941215</v>
+        <v>0.7297466942135094</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>520</v>
@@ -1722,19 +1722,19 @@
         <v>310702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>296086</v>
+        <v>296301</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>323073</v>
+        <v>323686</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7232918839071499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6892678136313377</v>
+        <v>0.689767961267221</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7520910447528489</v>
+        <v>0.753519467742806</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>40205</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31060</v>
+        <v>31624</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49393</v>
+        <v>50030</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1489317423305378</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1150554275856016</v>
+        <v>0.1171465177869736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1829687933448875</v>
+        <v>0.185328722720441</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -1847,19 +1847,19 @@
         <v>52546</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44113</v>
+        <v>43966</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61790</v>
+        <v>62892</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1992277014297078</v>
+        <v>0.1992277014297077</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1672531777264638</v>
+        <v>0.1666946725942791</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2342761453512295</v>
+        <v>0.2384535847252255</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>189</v>
@@ -1868,19 +1868,19 @@
         <v>92751</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79682</v>
+        <v>79908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>104817</v>
+        <v>106512</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1737874267577375</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1492998231226435</v>
+        <v>0.1497236161792544</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1963946803420544</v>
+        <v>0.1995710854149256</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>229749</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>220561</v>
+        <v>219924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238894</v>
+        <v>238330</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8510682576694623</v>
+        <v>0.8510682576694621</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8170312066551124</v>
+        <v>0.814671277279559</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8849445724143983</v>
+        <v>0.8828534822130264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>340</v>
@@ -1918,19 +1918,19 @@
         <v>211204</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201960</v>
+        <v>200858</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>219637</v>
+        <v>219784</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8007722985702924</v>
+        <v>0.8007722985702922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7657238546487705</v>
+        <v>0.7615464152747745</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8327468222735361</v>
+        <v>0.8333053274057207</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>641</v>
@@ -1939,19 +1939,19 @@
         <v>440953</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>428887</v>
+        <v>427192</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>454022</v>
+        <v>453796</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8262125732422626</v>
+        <v>0.8262125732422625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8036053196579458</v>
+        <v>0.800428914585075</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8507001768773567</v>
+        <v>0.8502763838207456</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>51139</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38745</v>
+        <v>36736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69160</v>
+        <v>67810</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.07141242150146586</v>
+        <v>0.07141242150146584</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05410480334414731</v>
+        <v>0.0512998147359755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09657823253494111</v>
+        <v>0.09469302479223884</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -2064,19 +2064,19 @@
         <v>79413</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63869</v>
+        <v>65756</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96826</v>
+        <v>98551</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1039416135599343</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08359699299042772</v>
+        <v>0.08606617792457068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.126733707498155</v>
+        <v>0.1289907297607585</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>141</v>
@@ -2085,19 +2085,19 @@
         <v>130552</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110313</v>
+        <v>109157</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156426</v>
+        <v>154441</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08820344284673855</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07452983835946404</v>
+        <v>0.07374862937293647</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1056846148846516</v>
+        <v>0.1043431800159103</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>664969</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646948</v>
+        <v>648298</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>677363</v>
+        <v>679372</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.928587578498534</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.903421767465059</v>
+        <v>0.9053069752077612</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9458951966558525</v>
+        <v>0.9487001852640247</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>854</v>
@@ -2135,19 +2135,19 @@
         <v>684601</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>667188</v>
+        <v>665463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>700145</v>
+        <v>698258</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8960583864400656</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.873266292501845</v>
+        <v>0.8710092702392419</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9164030070095723</v>
+        <v>0.9139338220754293</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1403</v>
@@ -2156,19 +2156,19 @@
         <v>1349570</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1323696</v>
+        <v>1325681</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1369809</v>
+        <v>1370965</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9117965571532615</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8943153851153485</v>
+        <v>0.8956568199840899</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9254701616405361</v>
+        <v>0.9262513706270636</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>127472</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>108687</v>
+        <v>109240</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>152790</v>
+        <v>151570</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1601816125551991</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1365763302759882</v>
+        <v>0.1372713682653666</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1919961785352209</v>
+        <v>0.1904637007142877</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>260</v>
@@ -2281,19 +2281,19 @@
         <v>182594</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>163097</v>
+        <v>161795</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>204437</v>
+        <v>203287</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2199843264718082</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1964945013894209</v>
+        <v>0.1949269073574606</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2463003759359026</v>
+        <v>0.2449155142402618</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>401</v>
@@ -2302,19 +2302,19 @@
         <v>310066</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>278853</v>
+        <v>280235</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>338290</v>
+        <v>340140</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1907126103503028</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1715146012008166</v>
+        <v>0.1723644127349984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2080722615224811</v>
+        <v>0.2092106501395973</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>668324</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>643006</v>
+        <v>644226</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>687109</v>
+        <v>686556</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8398183874448009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8080038214647789</v>
+        <v>0.8095362992857124</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8634236697240116</v>
+        <v>0.8627286317346335</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>800</v>
@@ -2352,19 +2352,19 @@
         <v>647437</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>625594</v>
+        <v>626744</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>666934</v>
+        <v>668236</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7800156735281919</v>
+        <v>0.7800156735281918</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7536996240640971</v>
+        <v>0.7550844857597381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8035054986105788</v>
+        <v>0.8050730926425393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1419</v>
@@ -2373,19 +2373,19 @@
         <v>1315761</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1287537</v>
+        <v>1285687</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1346974</v>
+        <v>1345592</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.809287389649697</v>
+        <v>0.8092873896496972</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.791927738477519</v>
+        <v>0.7907893498604028</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8284853987991834</v>
+        <v>0.8276355872650016</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>355911</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>320293</v>
+        <v>324872</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>395844</v>
+        <v>394270</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1021706220805332</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09194559555463047</v>
+        <v>0.09326011257788132</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1136340313038072</v>
+        <v>0.1131820528511616</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>909</v>
@@ -2498,19 +2498,19 @@
         <v>541532</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>506324</v>
+        <v>505775</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>577699</v>
+        <v>582120</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.1475312675094848</v>
+        <v>0.1475312675094847</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1379396183898319</v>
+        <v>0.1377898445649172</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1573843814129733</v>
+        <v>0.158588840036393</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1334</v>
@@ -2519,19 +2519,19 @@
         <v>897443</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>850876</v>
+        <v>852549</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>945081</v>
+        <v>951765</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1254441700403704</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1189350111770999</v>
+        <v>0.1191688562675132</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1321030025201212</v>
+        <v>0.133037194885832</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3127590</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3087657</v>
+        <v>3089231</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3163208</v>
+        <v>3158629</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8978293779194668</v>
+        <v>0.8978293779194669</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8863659686961921</v>
+        <v>0.8868179471488384</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9080544044453694</v>
+        <v>0.9067398874221186</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4350</v>
@@ -2569,19 +2569,19 @@
         <v>3129091</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3092924</v>
+        <v>3088503</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3164299</v>
+        <v>3164848</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8524687324905154</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8426156185870264</v>
+        <v>0.8414111599636072</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8620603816101681</v>
+        <v>0.8622101554350825</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7256</v>
@@ -2590,19 +2590,19 @@
         <v>6256681</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6209043</v>
+        <v>6202359</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6303248</v>
+        <v>6301575</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8745558299596297</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8678969974798788</v>
+        <v>0.866962805114168</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8810649888229002</v>
+        <v>0.8808311437324868</v>
       </c>
     </row>
     <row r="30">
